--- a/Шаблон ГИ.xlsx
+++ b/Шаблон ГИ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77E8669-FEF3-46F7-A5C3-9EF29D5E636C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F41B333-A84A-4FFB-961A-870D254BD938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
   </bookViews>
   <sheets>
     <sheet name="-1-" sheetId="4" state="hidden" r:id="rId1"/>
@@ -462,9 +462,6 @@
     <t>[Дата окончания работы]</t>
   </si>
   <si>
-    <t>Исполнительная схема №[№ акта] от [Дата окончания работы]</t>
-  </si>
-  <si>
     <t>[Материалы1]</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>[Следующая работа]</t>
+  </si>
+  <si>
+    <t>Исполнительная схема №[№ акта] от [Дата акта]</t>
   </si>
 </sst>
 </file>
@@ -1228,6 +1228,75 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1293,21 +1362,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,59 +1440,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1467,127 +1494,100 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9520,14 +9520,14 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="117" t="e">
+      <c r="H1" s="76" t="e">
         <f>CONCATENATE(#REF!, ,#REF!,#REF!, ,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="118"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -9560,18 +9560,18 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="121" t="e">
+      <c r="F6" s="80" t="e">
         <f>#REF!+#REF!-0.5</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="121"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="16"/>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
@@ -9587,11 +9587,11 @@
       <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="121" t="e">
+      <c r="K7" s="80" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="122"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -9599,194 +9599,194 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="86"/>
-      <c r="I9" s="128" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="I9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="29"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129" t="e">
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="130"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="80" t="e">
+      <c r="I18" s="103" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="G25" s="20"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="86"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="83"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="F29" s="66" t="e">
+      <c r="F29" s="89" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="89" t="e">
+      <c r="G29" s="89"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="84" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
+      <c r="B30" s="87"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -9797,11 +9797,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="65" t="e">
+      <c r="D31" s="88" t="e">
         <f>CONCATENATE(#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E31" s="65"/>
+      <c r="E31" s="88"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -9886,58 +9886,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="79"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="102"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="107"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="125"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -9952,14 +9952,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="110"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="128"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -9974,20 +9974,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="111"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="129"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="114" t="s">
+      <c r="K51" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="115"/>
+      <c r="L51" s="133"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10002,97 +10002,80 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="124" t="s">
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="100"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="132"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="91" t="e">
+      <c r="E54" s="109" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="67" t="s">
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="92"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="95"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="75"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I9:J17"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F28:H28"/>
@@ -10109,6 +10092,23 @@
     <mergeCell ref="E51:H53"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="F27:H27"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I9:J17"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -10148,19 +10148,19 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="117" t="e">
+      <c r="H1" s="76" t="e">
         <f>CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="118"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10168,10 +10168,10 @@
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="32"/>
       <c r="I3" s="35"/>
       <c r="J3" s="32"/>
@@ -10180,11 +10180,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="E4" s="151" t="e">
+      <c r="E4" s="136" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="151"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
@@ -10196,21 +10196,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="E5" s="151" t="e">
+      <c r="E5" s="136" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -10224,11 +10224,11 @@
       <c r="B7" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="K7" s="121" t="e">
+      <c r="K7" s="80" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="122"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -10236,18 +10236,18 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="86"/>
-      <c r="G9" s="151" t="e">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="G9" s="136" t="e">
         <v>#REF!</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="150" t="s">
+      <c r="H9" s="137"/>
+      <c r="I9" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="150"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -10255,146 +10255,146 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="17"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="129" t="e">
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="70" t="e">
         <v>#REF!</v>
       </c>
-      <c r="L16" s="130"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="144" t="e">
+      <c r="I18" s="138" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J18" s="145"/>
+      <c r="J18" s="139"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="86"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="21"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
@@ -10406,13 +10406,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -10425,21 +10425,21 @@
       <c r="G29" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="89" t="e">
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="84" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
+      <c r="B30" s="87"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="143"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -10449,10 +10449,10 @@
       <c r="B31" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="D31" s="86" t="e">
+      <c r="D31" s="83" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E31" s="86"/>
+      <c r="E31" s="83"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -10524,58 +10524,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="79"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="102"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="107"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="125"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -10590,14 +10590,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="110"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="128"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -10611,22 +10611,22 @@
       <c r="D51" s="7" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="111"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="129"/>
       <c r="I51" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="114" t="s">
+      <c r="K51" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="115"/>
+      <c r="L51" s="133"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10640,90 +10640,94 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="124" t="s">
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="100"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="132"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="135" t="e">
+      <c r="E54" s="144" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="67" t="s">
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="92"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="95"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="75"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I9:J17"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E54:H56"/>
+    <mergeCell ref="I54:L56"/>
+    <mergeCell ref="E48:L50"/>
+    <mergeCell ref="E51:H53"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="E46:L47"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
@@ -10737,20 +10741,16 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="I18:J30"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E54:H56"/>
-    <mergeCell ref="I54:L56"/>
-    <mergeCell ref="E48:L50"/>
-    <mergeCell ref="E51:H53"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I9:J17"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -10765,8 +10765,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:H91"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10783,10 +10783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="154" t="s">
         <v>117</v>
       </c>
@@ -10797,52 +10797,52 @@
       <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
@@ -10857,16 +10857,16 @@
       <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="154" t="s">
@@ -10881,71 +10881,71 @@
       <c r="H8" s="154"/>
     </row>
     <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
       <c r="D14" s="154" t="s">
         <v>47</v>
       </c>
@@ -10958,13 +10958,13 @@
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="154" t="s">
@@ -10979,16 +10979,16 @@
       <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="154" t="s">
@@ -11003,25 +11003,25 @@
       <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
       <c r="F20" s="48" t="s">
         <v>77</v>
       </c>
@@ -11030,15 +11030,15 @@
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="154" t="s">
@@ -11053,16 +11053,16 @@
       <c r="H22" s="154"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
@@ -11077,53 +11077,53 @@
       <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="178" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
+      <c r="A28" s="164" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
       <c r="H28" s="62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -11139,16 +11139,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
@@ -11165,16 +11165,16 @@
       <c r="H31" s="154"/>
     </row>
     <row r="32" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
@@ -11189,16 +11189,16 @@
       <c r="H33" s="154"/>
     </row>
     <row r="34" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155" t="s">
+      <c r="A34" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154" t="s">
@@ -11213,16 +11213,16 @@
       <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154" t="s">
@@ -11237,24 +11237,24 @@
       <c r="H37" s="154"/>
     </row>
     <row r="38" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
       <c r="E39" s="154" t="s">
         <v>110</v>
       </c>
@@ -11287,28 +11287,28 @@
       <c r="H41" s="154"/>
     </row>
     <row r="42" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
     </row>
     <row r="44" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="154" t="s">
@@ -11323,16 +11323,16 @@
       <c r="H44" s="154"/>
     </row>
     <row r="45" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
     </row>
     <row r="46" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="154" t="s">
@@ -11347,16 +11347,16 @@
       <c r="H46" s="154"/>
     </row>
     <row r="47" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
     </row>
     <row r="48" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="154" t="s">
@@ -11371,28 +11371,28 @@
       <c r="H48" s="154"/>
     </row>
     <row r="49" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
     </row>
     <row r="50" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167"/>
     </row>
     <row r="51" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="154" t="s">
@@ -11407,76 +11407,76 @@
       <c r="H51" s="154"/>
     </row>
     <row r="52" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="173" t="s">
+      <c r="A52" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
     </row>
     <row r="54" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="173" t="s">
+      <c r="A54" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
     </row>
     <row r="55" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="172"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="155"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="157"/>
     </row>
     <row r="57" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="154" t="s">
@@ -11491,16 +11491,16 @@
       <c r="H58" s="154"/>
     </row>
     <row r="59" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="154" t="s">
@@ -11515,25 +11515,25 @@
       <c r="H60" s="154"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="155"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="156" t="s">
+      <c r="A62" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
       <c r="F62" s="154" t="s">
         <v>120</v>
       </c>
@@ -11541,47 +11541,47 @@
       <c r="H62" s="154"/>
     </row>
     <row r="63" spans="1:8" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="168" t="s">
+      <c r="A63" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="170" t="s">
+      <c r="A64" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="170"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
     </row>
     <row r="65" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
     </row>
     <row r="66" spans="1:8" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="154" t="s">
         <v>79</v>
       </c>
@@ -11594,57 +11594,57 @@
       <c r="A67" s="54"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
     </row>
     <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="171" t="s">
+      <c r="A68" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="171"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="171"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="157"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
     </row>
     <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="168" t="s">
+      <c r="A69" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
     </row>
     <row r="70" spans="1:8" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="163" t="s">
+      <c r="A70" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="163"/>
+      <c r="B70" s="166"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="166"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="166"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="166"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="156" t="s">
+      <c r="A71" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="154"/>
       <c r="F71" s="154"/>
       <c r="G71" s="154"/>
@@ -11663,158 +11663,158 @@
       <c r="H72" s="154"/>
     </row>
     <row r="73" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="163" t="s">
+      <c r="A73" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="163"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
+      <c r="B74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="169" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="169"/>
-      <c r="E75" s="169"/>
-      <c r="F75" s="169"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="169"/>
+      <c r="A75" s="177" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="177"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="177"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="169" t="s">
+      <c r="A76" s="177" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="177"/>
+      <c r="C76" s="177"/>
+      <c r="D76" s="177"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="177"/>
+    </row>
+    <row r="77" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="166" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="166"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
+      <c r="E77" s="166"/>
+      <c r="F77" s="166"/>
+      <c r="G77" s="166"/>
+      <c r="H77" s="166"/>
+    </row>
+    <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+    </row>
+    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="176" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
+      <c r="E79" s="176"/>
+      <c r="F79" s="176"/>
+      <c r="G79" s="176"/>
+      <c r="H79" s="176"/>
+    </row>
+    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="169"/>
-      <c r="C76" s="169"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-    </row>
-    <row r="77" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="163"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="163"/>
-      <c r="E77" s="163"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="163"/>
-      <c r="H77" s="163"/>
-    </row>
-    <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="156"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-    </row>
-    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="160" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="160"/>
-      <c r="C79" s="160"/>
-      <c r="D79" s="160"/>
-      <c r="E79" s="160"/>
-      <c r="F79" s="160"/>
-      <c r="G79" s="160"/>
-      <c r="H79" s="160"/>
-    </row>
-    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="160" t="s">
+      <c r="B80" s="176"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="176"/>
+      <c r="E80" s="176"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="176"/>
+      <c r="H80" s="176"/>
+    </row>
+    <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="160"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="160"/>
-      <c r="E80" s="160"/>
-      <c r="F80" s="160"/>
-      <c r="G80" s="160"/>
-      <c r="H80" s="160"/>
-    </row>
-    <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="160"/>
-      <c r="C81" s="160"/>
-      <c r="D81" s="160"/>
-      <c r="E81" s="160"/>
-      <c r="F81" s="160"/>
-      <c r="G81" s="160"/>
-      <c r="H81" s="160"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="176"/>
+      <c r="G81" s="176"/>
+      <c r="H81" s="176"/>
     </row>
     <row r="82" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="155" t="s">
+      <c r="A82" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="155"/>
-      <c r="C82" s="155"/>
-      <c r="D82" s="155"/>
-      <c r="E82" s="155"/>
-      <c r="F82" s="155"/>
-      <c r="G82" s="155"/>
-      <c r="H82" s="155"/>
+      <c r="B82" s="157"/>
+      <c r="C82" s="157"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="157"/>
+      <c r="F82" s="157"/>
+      <c r="G82" s="157"/>
+      <c r="H82" s="157"/>
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="166" t="s">
+      <c r="A83" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="166"/>
-      <c r="C83" s="167" t="s">
+      <c r="B83" s="174"/>
+      <c r="C83" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
       <c r="F83" s="43"/>
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="166" t="s">
+      <c r="A84" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="166"/>
-      <c r="C84" s="167" t="s">
+      <c r="B84" s="174"/>
+      <c r="C84" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="156" t="s">
+      <c r="A85" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="156"/>
-      <c r="C85" s="156"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
       <c r="D85" s="154" t="s">
         <v>72</v>
       </c>
@@ -11836,32 +11836,32 @@
       <c r="H86" s="154"/>
     </row>
     <row r="87" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="155"/>
-      <c r="C87" s="155"/>
-      <c r="D87" s="155"/>
-      <c r="E87" s="155"/>
-      <c r="F87" s="155"/>
-      <c r="G87" s="155"/>
-      <c r="H87" s="155"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="157"/>
+      <c r="D87" s="157"/>
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="157"/>
+      <c r="H87" s="157"/>
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="156" t="s">
+      <c r="A88" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="156"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
-      <c r="E88" s="156"/>
-      <c r="F88" s="157"/>
-      <c r="G88" s="157"/>
-      <c r="H88" s="157"/>
+      <c r="B88" s="167"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="173"/>
+      <c r="G88" s="173"/>
+      <c r="H88" s="173"/>
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="184" t="s">
-        <v>137</v>
+      <c r="A89" s="182" t="s">
+        <v>136</v>
       </c>
       <c r="B89" s="154"/>
       <c r="C89" s="154"/>
@@ -11872,47 +11872,47 @@
       <c r="H89" s="154"/>
     </row>
     <row r="90" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="155" t="s">
+      <c r="A90" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="155"/>
-      <c r="C90" s="155"/>
-      <c r="D90" s="155"/>
-      <c r="E90" s="155"/>
-      <c r="F90" s="155"/>
-      <c r="G90" s="155"/>
-      <c r="H90" s="155"/>
+      <c r="B90" s="157"/>
+      <c r="C90" s="157"/>
+      <c r="D90" s="157"/>
+      <c r="E90" s="157"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="157"/>
+      <c r="H90" s="157"/>
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="156" t="s">
+      <c r="A91" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="156"/>
-      <c r="C91" s="158" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
-      <c r="F91" s="158"/>
-      <c r="G91" s="158"/>
-      <c r="H91" s="158"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="183" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="183"/>
+      <c r="E91" s="183"/>
+      <c r="F91" s="183"/>
+      <c r="G91" s="183"/>
+      <c r="H91" s="183"/>
     </row>
     <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="159"/>
-      <c r="B92" s="159"/>
-      <c r="C92" s="159"/>
-      <c r="D92" s="159"/>
-      <c r="E92" s="159"/>
-      <c r="F92" s="159"/>
-      <c r="G92" s="159"/>
-      <c r="H92" s="159"/>
+      <c r="A92" s="184"/>
+      <c r="B92" s="184"/>
+      <c r="C92" s="184"/>
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+      <c r="G92" s="184"/>
+      <c r="H92" s="184"/>
     </row>
     <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="161" t="s">
+      <c r="A93" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="161"/>
-      <c r="C93" s="161"/>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
       <c r="F93" s="50"/>
@@ -11922,110 +11922,110 @@
       <c r="A94" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="162"/>
-      <c r="C94" s="162"/>
-      <c r="D94" s="162"/>
-      <c r="E94" s="162"/>
-      <c r="F94" s="162"/>
+      <c r="B94" s="180"/>
+      <c r="C94" s="180"/>
+      <c r="D94" s="180"/>
+      <c r="E94" s="180"/>
+      <c r="F94" s="180"/>
       <c r="G94" s="58"/>
       <c r="H94" s="58"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="160" t="str">
+      <c r="A95" s="176" t="str">
         <f>A79</f>
-        <v>Исполнительная схема №[№ акта] от [Дата окончания работы]</v>
-      </c>
-      <c r="B95" s="160"/>
-      <c r="C95" s="160"/>
-      <c r="D95" s="160"/>
-      <c r="E95" s="160"/>
-      <c r="F95" s="160"/>
-      <c r="G95" s="160"/>
-      <c r="H95" s="160"/>
+        <v>Исполнительная схема №[№ акта] от [Дата акта]</v>
+      </c>
+      <c r="B95" s="176"/>
+      <c r="C95" s="176"/>
+      <c r="D95" s="176"/>
+      <c r="E95" s="176"/>
+      <c r="F95" s="176"/>
+      <c r="G95" s="176"/>
+      <c r="H95" s="176"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="160"/>
-      <c r="C96" s="160"/>
-      <c r="D96" s="160"/>
-      <c r="E96" s="160"/>
-      <c r="F96" s="160"/>
-      <c r="G96" s="160"/>
-      <c r="H96" s="160"/>
+      <c r="A96" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="176"/>
+      <c r="C96" s="176"/>
+      <c r="D96" s="176"/>
+      <c r="E96" s="176"/>
+      <c r="F96" s="176"/>
+      <c r="G96" s="176"/>
+      <c r="H96" s="176"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="160" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" s="160"/>
-      <c r="C97" s="160"/>
-      <c r="D97" s="160"/>
-      <c r="E97" s="160"/>
-      <c r="F97" s="160"/>
-      <c r="G97" s="160"/>
-      <c r="H97" s="160"/>
+      <c r="A97" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="176"/>
+      <c r="C97" s="176"/>
+      <c r="D97" s="176"/>
+      <c r="E97" s="176"/>
+      <c r="F97" s="176"/>
+      <c r="G97" s="176"/>
+      <c r="H97" s="176"/>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="160" t="s">
+      <c r="A98" s="176" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="176"/>
+      <c r="C98" s="176"/>
+      <c r="D98" s="176"/>
+      <c r="E98" s="176"/>
+      <c r="F98" s="176"/>
+      <c r="G98" s="176"/>
+      <c r="H98" s="176"/>
+    </row>
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="160"/>
-      <c r="C98" s="160"/>
-      <c r="D98" s="160"/>
-      <c r="E98" s="160"/>
-      <c r="F98" s="160"/>
-      <c r="G98" s="160"/>
-      <c r="H98" s="160"/>
-    </row>
-    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="B99" s="160"/>
-      <c r="C99" s="160"/>
-      <c r="D99" s="160"/>
-      <c r="E99" s="160"/>
-      <c r="F99" s="160"/>
-      <c r="G99" s="160"/>
-      <c r="H99" s="160"/>
+      <c r="B99" s="176"/>
+      <c r="C99" s="176"/>
+      <c r="D99" s="176"/>
+      <c r="E99" s="176"/>
+      <c r="F99" s="176"/>
+      <c r="G99" s="176"/>
+      <c r="H99" s="176"/>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="164" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="164"/>
-      <c r="C100" s="164"/>
-      <c r="D100" s="164"/>
-      <c r="E100" s="164"/>
-      <c r="F100" s="164"/>
-      <c r="G100" s="164"/>
-      <c r="H100" s="164"/>
+      <c r="A100" s="181" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="181"/>
+      <c r="C100" s="181"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="181"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="163" t="s">
+      <c r="A101" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="163"/>
-      <c r="C101" s="163"/>
-      <c r="D101" s="163"/>
-      <c r="E101" s="163"/>
-      <c r="F101" s="163"/>
-      <c r="G101" s="163"/>
-      <c r="H101" s="163"/>
+      <c r="B101" s="166"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="166"/>
+      <c r="E101" s="166"/>
+      <c r="F101" s="166"/>
+      <c r="G101" s="166"/>
+      <c r="H101" s="166"/>
     </row>
     <row r="102" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="156" t="s">
+      <c r="A102" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
-      <c r="E102" s="156"/>
-      <c r="F102" s="156"/>
-      <c r="G102" s="156"/>
-      <c r="H102" s="156"/>
+      <c r="B102" s="167"/>
+      <c r="C102" s="167"/>
+      <c r="D102" s="167"/>
+      <c r="E102" s="167"/>
+      <c r="F102" s="167"/>
+      <c r="G102" s="167"/>
+      <c r="H102" s="167"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -12034,11 +12034,11 @@
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="60"/>
-      <c r="E103" s="153" t="s">
+      <c r="E103" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="F103" s="153"/>
-      <c r="G103" s="153"/>
+      <c r="F103" s="178"/>
+      <c r="G103" s="178"/>
       <c r="H103" s="60"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12046,35 +12046,35 @@
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
       <c r="D104" s="57"/>
-      <c r="E104" s="155" t="s">
+      <c r="E104" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="155"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="155"/>
+      <c r="F104" s="157"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="157"/>
     </row>
     <row r="105" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="156" t="s">
+      <c r="A105" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="156"/>
-      <c r="C105" s="156"/>
-      <c r="D105" s="156"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="156"/>
-      <c r="G105" s="156"/>
-      <c r="H105" s="156"/>
+      <c r="B105" s="167"/>
+      <c r="C105" s="167"/>
+      <c r="D105" s="167"/>
+      <c r="E105" s="167"/>
+      <c r="F105" s="167"/>
+      <c r="G105" s="167"/>
+      <c r="H105" s="167"/>
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="60"/>
       <c r="D106" s="60"/>
-      <c r="E106" s="153" t="s">
+      <c r="E106" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
+      <c r="F106" s="178"/>
+      <c r="G106" s="178"/>
       <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12082,37 +12082,37 @@
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
-      <c r="E107" s="155" t="s">
+      <c r="E107" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F107" s="155"/>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
+      <c r="F107" s="157"/>
+      <c r="G107" s="157"/>
+      <c r="H107" s="157"/>
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="165" t="s">
+      <c r="A108" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="165"/>
-      <c r="C108" s="165"/>
-      <c r="D108" s="165"/>
-      <c r="E108" s="165"/>
-      <c r="F108" s="165"/>
-      <c r="G108" s="165"/>
-      <c r="H108" s="165"/>
+      <c r="B108" s="153"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="153"/>
+      <c r="F108" s="153"/>
+      <c r="G108" s="153"/>
+      <c r="H108" s="153"/>
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="165" t="s">
+      <c r="A109" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="165"/>
-      <c r="C109" s="165"/>
+      <c r="B109" s="153"/>
+      <c r="C109" s="153"/>
       <c r="D109" s="60"/>
-      <c r="E109" s="153" t="s">
+      <c r="E109" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="153"/>
-      <c r="G109" s="153"/>
+      <c r="F109" s="178"/>
+      <c r="G109" s="178"/>
       <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12120,35 +12120,35 @@
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
-      <c r="E110" s="155" t="s">
+      <c r="E110" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="155"/>
-      <c r="G110" s="155"/>
-      <c r="H110" s="155"/>
+      <c r="F110" s="157"/>
+      <c r="G110" s="157"/>
+      <c r="H110" s="157"/>
     </row>
     <row r="111" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="156" t="s">
+      <c r="A111" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B111" s="156"/>
-      <c r="C111" s="156"/>
-      <c r="D111" s="156"/>
-      <c r="E111" s="156"/>
-      <c r="F111" s="156"/>
-      <c r="G111" s="156"/>
-      <c r="H111" s="156"/>
+      <c r="B111" s="167"/>
+      <c r="C111" s="167"/>
+      <c r="D111" s="167"/>
+      <c r="E111" s="167"/>
+      <c r="F111" s="167"/>
+      <c r="G111" s="167"/>
+      <c r="H111" s="167"/>
     </row>
     <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="60"/>
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
-      <c r="E112" s="153" t="s">
+      <c r="E112" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="153"/>
-      <c r="G112" s="153"/>
+      <c r="F112" s="178"/>
+      <c r="G112" s="178"/>
       <c r="H112" s="60"/>
     </row>
     <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12156,35 +12156,35 @@
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
-      <c r="E113" s="155" t="s">
+      <c r="E113" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F113" s="155"/>
-      <c r="G113" s="155"/>
-      <c r="H113" s="155"/>
+      <c r="F113" s="157"/>
+      <c r="G113" s="157"/>
+      <c r="H113" s="157"/>
     </row>
     <row r="114" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="156" t="s">
+      <c r="A114" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="156"/>
-      <c r="C114" s="156"/>
-      <c r="D114" s="156"/>
-      <c r="E114" s="156"/>
-      <c r="F114" s="156"/>
-      <c r="G114" s="156"/>
-      <c r="H114" s="156"/>
+      <c r="B114" s="167"/>
+      <c r="C114" s="167"/>
+      <c r="D114" s="167"/>
+      <c r="E114" s="167"/>
+      <c r="F114" s="167"/>
+      <c r="G114" s="167"/>
+      <c r="H114" s="167"/>
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="60"/>
       <c r="B115" s="60"/>
       <c r="C115" s="60"/>
       <c r="D115" s="60"/>
-      <c r="E115" s="153" t="s">
+      <c r="E115" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="F115" s="153"/>
-      <c r="G115" s="153"/>
+      <c r="F115" s="178"/>
+      <c r="G115" s="178"/>
       <c r="H115" s="60"/>
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12192,12 +12192,12 @@
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
       <c r="D116" s="57"/>
-      <c r="E116" s="155" t="s">
+      <c r="E116" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F116" s="155"/>
-      <c r="G116" s="155"/>
-      <c r="H116" s="155"/>
+      <c r="F116" s="157"/>
+      <c r="G116" s="157"/>
+      <c r="H116" s="157"/>
     </row>
     <row r="117" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="55" t="s">
@@ -12206,11 +12206,11 @@
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
       <c r="D117" s="45"/>
-      <c r="E117" s="153" t="s">
+      <c r="E117" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="153"/>
-      <c r="G117" s="153"/>
+      <c r="F117" s="178"/>
+      <c r="G117" s="178"/>
       <c r="H117" s="45"/>
     </row>
     <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12218,110 +12218,27 @@
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
       <c r="D118" s="57"/>
-      <c r="E118" s="155" t="s">
+      <c r="E118" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="155"/>
-      <c r="G118" s="155"/>
-      <c r="H118" s="155"/>
+      <c r="F118" s="157"/>
+      <c r="G118" s="157"/>
+      <c r="H118" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A99:H99"/>
     <mergeCell ref="E118:H118"/>
     <mergeCell ref="A111:H111"/>
     <mergeCell ref="E112:G112"/>
@@ -12346,18 +12263,101 @@
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="E109:G109"/>
     <mergeCell ref="E110:H110"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Шаблон ГИ.xlsx
+++ b/Шаблон ГИ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F41B333-A84A-4FFB-961A-870D254BD938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69CBDA5-7B17-4DAA-AA76-C06FFAA16E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
+    <workbookView xWindow="-31380" yWindow="1410" windowWidth="29040" windowHeight="14430" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
   </bookViews>
   <sheets>
     <sheet name="-1-" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1225,9 +1225,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1589,6 +1586,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9520,14 +9521,14 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="76" t="e">
+      <c r="H1" s="75" t="e">
         <f>CONCATENATE(#REF!, ,#REF!,#REF!, ,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -9560,18 +9561,18 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="80" t="e">
+      <c r="F6" s="79" t="e">
         <f>#REF!+#REF!-0.5</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="16"/>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
@@ -9587,11 +9588,11 @@
       <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="80" t="e">
+      <c r="K7" s="79" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -9599,194 +9600,194 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="I9" s="69" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="I9" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="29"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70" t="e">
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65"/>
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="103" t="e">
+      <c r="I18" s="102" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="104"/>
+      <c r="J18" s="103"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="G25" s="20"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="83"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="82"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="106"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="105"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="F29" s="89" t="e">
+      <c r="F29" s="88" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="84" t="e">
+      <c r="G29" s="88"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="83" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="84"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108"/>
+      <c r="B30" s="86"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -9797,11 +9798,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="88" t="e">
+      <c r="D31" s="87" t="e">
         <f>CONCATENATE(#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="87"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -9886,58 +9887,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="92"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="91"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="102"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="125"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="124"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -9952,14 +9953,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -9974,20 +9975,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E51" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="129"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="128"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="132" t="s">
+      <c r="K51" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="133"/>
+      <c r="L51" s="132"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10002,77 +10003,77 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="123"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="63" t="s">
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="118"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="72"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="74"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="109" t="e">
+      <c r="E54" s="108" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="90" t="s">
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="92"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="91"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="95"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="94"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -10148,19 +10149,19 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="76" t="e">
+      <c r="H1" s="75" t="e">
         <f>CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10168,10 +10169,10 @@
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="32"/>
       <c r="I3" s="35"/>
       <c r="J3" s="32"/>
@@ -10180,11 +10181,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="E4" s="136" t="e">
+      <c r="E4" s="135" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
@@ -10196,21 +10197,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="E5" s="136" t="e">
+      <c r="E5" s="135" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="78"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -10224,11 +10225,11 @@
       <c r="B7" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="K7" s="80" t="e">
+      <c r="K7" s="79" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="80"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -10236,18 +10237,18 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="G9" s="136" t="e">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="G9" s="135" t="e">
         <v>#REF!</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="135" t="s">
+      <c r="H9" s="136"/>
+      <c r="I9" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="135"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -10255,146 +10256,146 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="17"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="70" t="e">
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="69" t="e">
         <v>#REF!</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="138" t="e">
+      <c r="I18" s="137" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J18" s="139"/>
+      <c r="J18" s="138"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="21"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="140"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="140"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="140"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
@@ -10406,13 +10407,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="140"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -10425,21 +10426,21 @@
       <c r="G29" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="84" t="e">
+      <c r="I29" s="139"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="83" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="84"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
+      <c r="B30" s="86"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="142"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -10449,10 +10450,10 @@
       <c r="B31" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="D31" s="83" t="e">
+      <c r="D31" s="82" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="82"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -10524,58 +10525,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="92"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="91"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="102"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="101"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="121"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="125"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="124"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -10590,14 +10591,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="126"/>
+      <c r="H50" s="126"/>
+      <c r="I50" s="126"/>
+      <c r="J50" s="126"/>
+      <c r="K50" s="126"/>
+      <c r="L50" s="127"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -10611,22 +10612,22 @@
       <c r="D51" s="7" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E51" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="129"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="128"/>
       <c r="I51" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="132" t="s">
+      <c r="K51" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="133"/>
+      <c r="L51" s="132"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10640,77 +10641,77 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="123"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="63" t="s">
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="118"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="72"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="74"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="144" t="e">
+      <c r="E54" s="143" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="90" t="s">
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="92"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="91"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="95"/>
+      <c r="E55" s="146"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="94"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="150"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -10765,8 +10766,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10783,245 +10784,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="154" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="155" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
     </row>
     <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
       <c r="F20" s="48" t="s">
         <v>77</v>
       </c>
@@ -11030,99 +11031,99 @@
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="154" t="s">
+      <c r="A24" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="184" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11139,780 +11140,780 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="164"/>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
     </row>
     <row r="32" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
+      <c r="A33" s="153" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
     </row>
     <row r="34" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154" t="s">
+      <c r="A35" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
     </row>
     <row r="36" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="154" t="s">
+      <c r="A37" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
     </row>
     <row r="38" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="154" t="s">
+      <c r="B39" s="166"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
     </row>
     <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
     </row>
     <row r="42" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
     </row>
     <row r="44" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="154" t="s">
+      <c r="A44" s="153" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
     </row>
     <row r="45" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
     </row>
     <row r="46" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="154" t="s">
+      <c r="A46" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
     </row>
     <row r="47" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
     </row>
     <row r="48" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="154" t="s">
+      <c r="A48" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="154"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
     </row>
     <row r="49" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="157" t="s">
+      <c r="A49" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
     </row>
     <row r="50" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
     </row>
     <row r="51" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="154" t="s">
+      <c r="A51" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
     </row>
     <row r="52" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="170" t="s">
+      <c r="A52" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="169"/>
+      <c r="H52" s="169"/>
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="171" t="s">
+      <c r="A53" s="170" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
     </row>
     <row r="54" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170" t="s">
+      <c r="A54" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
+      <c r="B54" s="169"/>
+      <c r="C54" s="169"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="169"/>
+      <c r="H54" s="169"/>
     </row>
     <row r="55" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="171" t="s">
+      <c r="A55" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="171"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="157" t="s">
+      <c r="A56" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
     </row>
     <row r="57" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="154" t="s">
+      <c r="A58" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="153"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
     </row>
     <row r="59" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="157" t="s">
+      <c r="A59" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="154" t="s">
+      <c r="A60" s="153" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="154"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="154"/>
-      <c r="H60" s="154"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
+      <c r="A62" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="154" t="s">
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
     </row>
     <row r="63" spans="1:8" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="155"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156" t="s">
+      <c r="A64" s="155" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="156"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
     </row>
     <row r="65" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="157" t="s">
+      <c r="A65" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
     </row>
     <row r="66" spans="1:8" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="167" t="s">
+      <c r="A66" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="154" t="s">
+      <c r="B66" s="166"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
     </row>
     <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="157" t="s">
+      <c r="D67" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
     </row>
     <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="172"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="172"/>
+      <c r="H68" s="172"/>
     </row>
     <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="154"/>
+      <c r="D69" s="154"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="154"/>
+      <c r="G69" s="154"/>
+      <c r="H69" s="154"/>
     </row>
     <row r="70" spans="1:8" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="166"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="166"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="166"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="167" t="s">
+      <c r="A71" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
+      <c r="B71" s="166"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="166"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="154" t="s">
+      <c r="A72" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="154"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
+      <c r="B72" s="153"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
     </row>
     <row r="73" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="166" t="s">
+      <c r="A73" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="166"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="166"/>
-      <c r="H73" s="166"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="167" t="s">
+      <c r="A74" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
+      <c r="B74" s="166"/>
+      <c r="D74" s="166"/>
+      <c r="E74" s="166"/>
+      <c r="F74" s="166"/>
+      <c r="G74" s="166"/>
+      <c r="H74" s="166"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="176" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="176"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="176"/>
+      <c r="F75" s="176"/>
+      <c r="G75" s="176"/>
+      <c r="H75" s="176"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="176" t="s">
         <v>132</v>
       </c>
-      <c r="B76" s="177"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="177"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="176"/>
+      <c r="F76" s="176"/>
+      <c r="G76" s="176"/>
+      <c r="H76" s="176"/>
     </row>
     <row r="77" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="166" t="s">
+      <c r="A77" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="166"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
-      <c r="E77" s="166"/>
-      <c r="F77" s="166"/>
-      <c r="G77" s="166"/>
-      <c r="H77" s="166"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="165"/>
+      <c r="F77" s="165"/>
+      <c r="G77" s="165"/>
+      <c r="H77" s="165"/>
     </row>
     <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="167"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
-      <c r="H78" s="167"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
+      <c r="E78" s="166"/>
+      <c r="F78" s="166"/>
+      <c r="G78" s="166"/>
+      <c r="H78" s="166"/>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="176" t="s">
+      <c r="A79" s="175" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
-      <c r="E79" s="176"/>
-      <c r="F79" s="176"/>
-      <c r="G79" s="176"/>
-      <c r="H79" s="176"/>
+      <c r="B79" s="175"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
+      <c r="F79" s="175"/>
+      <c r="G79" s="175"/>
+      <c r="H79" s="175"/>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="176"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
-      <c r="E80" s="176"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="176"/>
-      <c r="H80" s="176"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="175"/>
+      <c r="H80" s="175"/>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="176" t="s">
+      <c r="A81" s="175" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="176"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="176"/>
-      <c r="E81" s="176"/>
-      <c r="F81" s="176"/>
-      <c r="G81" s="176"/>
-      <c r="H81" s="176"/>
+      <c r="B81" s="175"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
+      <c r="F81" s="175"/>
+      <c r="G81" s="175"/>
+      <c r="H81" s="175"/>
     </row>
     <row r="82" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="157" t="s">
+      <c r="A82" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="157"/>
-      <c r="C82" s="157"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="157"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="156"/>
+      <c r="D82" s="156"/>
+      <c r="E82" s="156"/>
+      <c r="F82" s="156"/>
+      <c r="G82" s="156"/>
+      <c r="H82" s="156"/>
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="174" t="s">
+      <c r="A83" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="174"/>
-      <c r="C83" s="175" t="s">
+      <c r="B83" s="173"/>
+      <c r="C83" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
+      <c r="D83" s="174"/>
+      <c r="E83" s="174"/>
       <c r="F83" s="43"/>
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="175" t="s">
+      <c r="B84" s="173"/>
+      <c r="C84" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
+      <c r="D84" s="174"/>
+      <c r="E84" s="174"/>
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="154" t="s">
+      <c r="B85" s="166"/>
+      <c r="C85" s="166"/>
+      <c r="D85" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154"/>
-      <c r="H85" s="154"/>
+      <c r="E85" s="153"/>
+      <c r="F85" s="153"/>
+      <c r="G85" s="153"/>
+      <c r="H85" s="153"/>
     </row>
     <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="154" t="s">
+      <c r="A86" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="154"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="153"/>
+      <c r="D86" s="153"/>
+      <c r="E86" s="153"/>
+      <c r="F86" s="153"/>
+      <c r="G86" s="153"/>
+      <c r="H86" s="153"/>
     </row>
     <row r="87" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="157" t="s">
+      <c r="A87" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="157"/>
-      <c r="C87" s="157"/>
-      <c r="D87" s="157"/>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
-      <c r="G87" s="157"/>
-      <c r="H87" s="157"/>
+      <c r="B87" s="156"/>
+      <c r="C87" s="156"/>
+      <c r="D87" s="156"/>
+      <c r="E87" s="156"/>
+      <c r="F87" s="156"/>
+      <c r="G87" s="156"/>
+      <c r="H87" s="156"/>
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="167" t="s">
+      <c r="A88" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="173"/>
-      <c r="G88" s="173"/>
-      <c r="H88" s="173"/>
+      <c r="B88" s="166"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="172"/>
+      <c r="H88" s="172"/>
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="182" t="s">
+      <c r="A89" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="154"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="154"/>
+      <c r="B89" s="153"/>
+      <c r="C89" s="153"/>
+      <c r="D89" s="153"/>
+      <c r="E89" s="153"/>
+      <c r="F89" s="153"/>
+      <c r="G89" s="153"/>
+      <c r="H89" s="153"/>
     </row>
     <row r="90" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="157" t="s">
+      <c r="A90" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="157"/>
-      <c r="C90" s="157"/>
-      <c r="D90" s="157"/>
-      <c r="E90" s="157"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="157"/>
-      <c r="H90" s="157"/>
+      <c r="B90" s="156"/>
+      <c r="C90" s="156"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="156"/>
+      <c r="F90" s="156"/>
+      <c r="G90" s="156"/>
+      <c r="H90" s="156"/>
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="167" t="s">
+      <c r="A91" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="183" t="s">
+      <c r="B91" s="166"/>
+      <c r="C91" s="182" t="s">
         <v>131</v>
       </c>
-      <c r="D91" s="183"/>
-      <c r="E91" s="183"/>
-      <c r="F91" s="183"/>
-      <c r="G91" s="183"/>
-      <c r="H91" s="183"/>
+      <c r="D91" s="182"/>
+      <c r="E91" s="182"/>
+      <c r="F91" s="182"/>
+      <c r="G91" s="182"/>
+      <c r="H91" s="182"/>
     </row>
     <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="184"/>
-      <c r="B92" s="184"/>
-      <c r="C92" s="184"/>
-      <c r="D92" s="184"/>
-      <c r="E92" s="184"/>
-      <c r="F92" s="184"/>
-      <c r="G92" s="184"/>
-      <c r="H92" s="184"/>
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="183"/>
+      <c r="E92" s="183"/>
+      <c r="F92" s="183"/>
+      <c r="G92" s="183"/>
+      <c r="H92" s="183"/>
     </row>
     <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="179" t="s">
+      <c r="A93" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="179"/>
-      <c r="C93" s="179"/>
+      <c r="B93" s="178"/>
+      <c r="C93" s="178"/>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
       <c r="F93" s="50"/>
@@ -11922,110 +11923,110 @@
       <c r="A94" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="180"/>
-      <c r="C94" s="180"/>
-      <c r="D94" s="180"/>
-      <c r="E94" s="180"/>
-      <c r="F94" s="180"/>
+      <c r="B94" s="179"/>
+      <c r="C94" s="179"/>
+      <c r="D94" s="179"/>
+      <c r="E94" s="179"/>
+      <c r="F94" s="179"/>
       <c r="G94" s="58"/>
       <c r="H94" s="58"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="176" t="str">
+      <c r="A95" s="175" t="str">
         <f>A79</f>
         <v>Исполнительная схема №[№ акта] от [Дата акта]</v>
       </c>
-      <c r="B95" s="176"/>
-      <c r="C95" s="176"/>
-      <c r="D95" s="176"/>
-      <c r="E95" s="176"/>
-      <c r="F95" s="176"/>
-      <c r="G95" s="176"/>
-      <c r="H95" s="176"/>
+      <c r="B95" s="175"/>
+      <c r="C95" s="175"/>
+      <c r="D95" s="175"/>
+      <c r="E95" s="175"/>
+      <c r="F95" s="175"/>
+      <c r="G95" s="175"/>
+      <c r="H95" s="175"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="176" t="s">
+      <c r="A96" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="176"/>
-      <c r="C96" s="176"/>
-      <c r="D96" s="176"/>
-      <c r="E96" s="176"/>
-      <c r="F96" s="176"/>
-      <c r="G96" s="176"/>
-      <c r="H96" s="176"/>
+      <c r="B96" s="175"/>
+      <c r="C96" s="175"/>
+      <c r="D96" s="175"/>
+      <c r="E96" s="175"/>
+      <c r="F96" s="175"/>
+      <c r="G96" s="175"/>
+      <c r="H96" s="175"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="176" t="s">
+      <c r="A97" s="175" t="s">
         <v>135</v>
       </c>
-      <c r="B97" s="176"/>
-      <c r="C97" s="176"/>
-      <c r="D97" s="176"/>
-      <c r="E97" s="176"/>
-      <c r="F97" s="176"/>
-      <c r="G97" s="176"/>
-      <c r="H97" s="176"/>
+      <c r="B97" s="175"/>
+      <c r="C97" s="175"/>
+      <c r="D97" s="175"/>
+      <c r="E97" s="175"/>
+      <c r="F97" s="175"/>
+      <c r="G97" s="175"/>
+      <c r="H97" s="175"/>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="176" t="s">
+      <c r="A98" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="176"/>
-      <c r="C98" s="176"/>
-      <c r="D98" s="176"/>
-      <c r="E98" s="176"/>
-      <c r="F98" s="176"/>
-      <c r="G98" s="176"/>
-      <c r="H98" s="176"/>
+      <c r="B98" s="175"/>
+      <c r="C98" s="175"/>
+      <c r="D98" s="175"/>
+      <c r="E98" s="175"/>
+      <c r="F98" s="175"/>
+      <c r="G98" s="175"/>
+      <c r="H98" s="175"/>
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="176" t="s">
+      <c r="A99" s="175" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="176"/>
-      <c r="C99" s="176"/>
-      <c r="D99" s="176"/>
-      <c r="E99" s="176"/>
-      <c r="F99" s="176"/>
-      <c r="G99" s="176"/>
-      <c r="H99" s="176"/>
+      <c r="B99" s="175"/>
+      <c r="C99" s="175"/>
+      <c r="D99" s="175"/>
+      <c r="E99" s="175"/>
+      <c r="F99" s="175"/>
+      <c r="G99" s="175"/>
+      <c r="H99" s="175"/>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="181" t="s">
+      <c r="A100" s="180" t="s">
         <v>131</v>
       </c>
-      <c r="B100" s="181"/>
-      <c r="C100" s="181"/>
-      <c r="D100" s="181"/>
-      <c r="E100" s="181"/>
-      <c r="F100" s="181"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="181"/>
+      <c r="B100" s="180"/>
+      <c r="C100" s="180"/>
+      <c r="D100" s="180"/>
+      <c r="E100" s="180"/>
+      <c r="F100" s="180"/>
+      <c r="G100" s="180"/>
+      <c r="H100" s="180"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="166" t="s">
+      <c r="A101" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="166"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="166"/>
-      <c r="E101" s="166"/>
-      <c r="F101" s="166"/>
-      <c r="G101" s="166"/>
-      <c r="H101" s="166"/>
+      <c r="B101" s="165"/>
+      <c r="C101" s="165"/>
+      <c r="D101" s="165"/>
+      <c r="E101" s="165"/>
+      <c r="F101" s="165"/>
+      <c r="G101" s="165"/>
+      <c r="H101" s="165"/>
     </row>
     <row r="102" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="167" t="s">
+      <c r="A102" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="167"/>
-      <c r="C102" s="167"/>
-      <c r="D102" s="167"/>
-      <c r="E102" s="167"/>
-      <c r="F102" s="167"/>
-      <c r="G102" s="167"/>
-      <c r="H102" s="167"/>
+      <c r="B102" s="166"/>
+      <c r="C102" s="166"/>
+      <c r="D102" s="166"/>
+      <c r="E102" s="166"/>
+      <c r="F102" s="166"/>
+      <c r="G102" s="166"/>
+      <c r="H102" s="166"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -12034,11 +12035,11 @@
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="60"/>
-      <c r="E103" s="178" t="s">
+      <c r="E103" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="F103" s="178"/>
-      <c r="G103" s="178"/>
+      <c r="F103" s="177"/>
+      <c r="G103" s="177"/>
       <c r="H103" s="60"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12046,35 +12047,35 @@
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
       <c r="D104" s="57"/>
-      <c r="E104" s="157" t="s">
+      <c r="E104" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="157"/>
-      <c r="G104" s="157"/>
-      <c r="H104" s="157"/>
+      <c r="F104" s="156"/>
+      <c r="G104" s="156"/>
+      <c r="H104" s="156"/>
     </row>
     <row r="105" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="167" t="s">
+      <c r="A105" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="167"/>
-      <c r="C105" s="167"/>
-      <c r="D105" s="167"/>
-      <c r="E105" s="167"/>
-      <c r="F105" s="167"/>
-      <c r="G105" s="167"/>
-      <c r="H105" s="167"/>
+      <c r="B105" s="166"/>
+      <c r="C105" s="166"/>
+      <c r="D105" s="166"/>
+      <c r="E105" s="166"/>
+      <c r="F105" s="166"/>
+      <c r="G105" s="166"/>
+      <c r="H105" s="166"/>
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="60"/>
       <c r="D106" s="60"/>
-      <c r="E106" s="178" t="s">
+      <c r="E106" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="178"/>
-      <c r="G106" s="178"/>
+      <c r="F106" s="177"/>
+      <c r="G106" s="177"/>
       <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12082,37 +12083,37 @@
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
-      <c r="E107" s="157" t="s">
+      <c r="E107" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F107" s="157"/>
-      <c r="G107" s="157"/>
-      <c r="H107" s="157"/>
+      <c r="F107" s="156"/>
+      <c r="G107" s="156"/>
+      <c r="H107" s="156"/>
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="153" t="s">
+      <c r="A108" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="153"/>
-      <c r="C108" s="153"/>
-      <c r="D108" s="153"/>
-      <c r="E108" s="153"/>
-      <c r="F108" s="153"/>
-      <c r="G108" s="153"/>
-      <c r="H108" s="153"/>
+      <c r="B108" s="152"/>
+      <c r="C108" s="152"/>
+      <c r="D108" s="152"/>
+      <c r="E108" s="152"/>
+      <c r="F108" s="152"/>
+      <c r="G108" s="152"/>
+      <c r="H108" s="152"/>
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="153" t="s">
+      <c r="A109" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="153"/>
-      <c r="C109" s="153"/>
+      <c r="B109" s="152"/>
+      <c r="C109" s="152"/>
       <c r="D109" s="60"/>
-      <c r="E109" s="178" t="s">
+      <c r="E109" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="178"/>
-      <c r="G109" s="178"/>
+      <c r="F109" s="177"/>
+      <c r="G109" s="177"/>
       <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12120,35 +12121,35 @@
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
-      <c r="E110" s="157" t="s">
+      <c r="E110" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="157"/>
-      <c r="G110" s="157"/>
-      <c r="H110" s="157"/>
+      <c r="F110" s="156"/>
+      <c r="G110" s="156"/>
+      <c r="H110" s="156"/>
     </row>
     <row r="111" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B111" s="167"/>
-      <c r="C111" s="167"/>
-      <c r="D111" s="167"/>
-      <c r="E111" s="167"/>
-      <c r="F111" s="167"/>
-      <c r="G111" s="167"/>
-      <c r="H111" s="167"/>
+      <c r="B111" s="166"/>
+      <c r="C111" s="166"/>
+      <c r="D111" s="166"/>
+      <c r="E111" s="166"/>
+      <c r="F111" s="166"/>
+      <c r="G111" s="166"/>
+      <c r="H111" s="166"/>
     </row>
     <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="60"/>
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
-      <c r="E112" s="178" t="s">
+      <c r="E112" s="177" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="178"/>
-      <c r="G112" s="178"/>
+      <c r="F112" s="177"/>
+      <c r="G112" s="177"/>
       <c r="H112" s="60"/>
     </row>
     <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12156,35 +12157,35 @@
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
-      <c r="E113" s="157" t="s">
+      <c r="E113" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F113" s="157"/>
-      <c r="G113" s="157"/>
-      <c r="H113" s="157"/>
+      <c r="F113" s="156"/>
+      <c r="G113" s="156"/>
+      <c r="H113" s="156"/>
     </row>
     <row r="114" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="167" t="s">
+      <c r="A114" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="167"/>
-      <c r="C114" s="167"/>
-      <c r="D114" s="167"/>
-      <c r="E114" s="167"/>
-      <c r="F114" s="167"/>
-      <c r="G114" s="167"/>
-      <c r="H114" s="167"/>
+      <c r="B114" s="166"/>
+      <c r="C114" s="166"/>
+      <c r="D114" s="166"/>
+      <c r="E114" s="166"/>
+      <c r="F114" s="166"/>
+      <c r="G114" s="166"/>
+      <c r="H114" s="166"/>
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="60"/>
       <c r="B115" s="60"/>
       <c r="C115" s="60"/>
       <c r="D115" s="60"/>
-      <c r="E115" s="178" t="s">
+      <c r="E115" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="F115" s="178"/>
-      <c r="G115" s="178"/>
+      <c r="F115" s="177"/>
+      <c r="G115" s="177"/>
       <c r="H115" s="60"/>
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12192,12 +12193,12 @@
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
       <c r="D116" s="57"/>
-      <c r="E116" s="157" t="s">
+      <c r="E116" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F116" s="157"/>
-      <c r="G116" s="157"/>
-      <c r="H116" s="157"/>
+      <c r="F116" s="156"/>
+      <c r="G116" s="156"/>
+      <c r="H116" s="156"/>
     </row>
     <row r="117" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="55" t="s">
@@ -12206,11 +12207,11 @@
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
       <c r="D117" s="45"/>
-      <c r="E117" s="178" t="s">
+      <c r="E117" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="178"/>
-      <c r="G117" s="178"/>
+      <c r="F117" s="177"/>
+      <c r="G117" s="177"/>
       <c r="H117" s="45"/>
     </row>
     <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12218,12 +12219,12 @@
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
       <c r="D118" s="57"/>
-      <c r="E118" s="157" t="s">
+      <c r="E118" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="157"/>
-      <c r="G118" s="157"/>
-      <c r="H118" s="157"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="131">
